--- a/利润表/600858.xlsx
+++ b/利润表/600858.xlsx
@@ -714,7 +714,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>003</t>
+          <t>002</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -734,47 +734,47 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-03-31 00:00:00</t>
+          <t>2020-06-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>-110179395.57</v>
+        <v>-193769054.76</v>
       </c>
       <c r="P2" t="n">
-        <v>1308155612.38</v>
+        <v>2522290245.31</v>
       </c>
       <c r="Q2" t="n">
-        <v>1438526857.28</v>
+        <v>2707227729.75</v>
       </c>
       <c r="R2" t="n">
-        <v>-59.1035435409</v>
+        <v>-56.9819255974</v>
       </c>
       <c r="S2" t="n">
-        <v>912662802.3200001</v>
+        <v>1697174134.51</v>
       </c>
       <c r="T2" t="n">
-        <v>912662802.3200001</v>
+        <v>1697174134.51</v>
       </c>
       <c r="U2" t="n">
-        <v>-68.7620759254</v>
+        <v>-66.9044522617</v>
       </c>
       <c r="V2" t="n">
-        <v>376664698.47</v>
+        <v>714629910.51</v>
       </c>
       <c r="W2" t="n">
-        <v>63858718.24</v>
+        <v>127634961.88</v>
       </c>
       <c r="X2" t="n">
-        <v>56336357.46</v>
+        <v>116932073.19</v>
       </c>
       <c r="Y2" t="n">
-        <v>-132179994.44</v>
+        <v>-182709136.9</v>
       </c>
       <c r="Z2" t="n">
-        <v>-130982587.93</v>
+        <v>-170233935.58</v>
       </c>
       <c r="AA2" t="n">
-        <v>-12508604.41</v>
+        <v>38800941.06</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -782,7 +782,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>29004280.79</v>
+        <v>50856649.66</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -793,19 +793,19 @@
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="n">
-        <v>-63.7894710901</v>
+        <v>-60.6057112233</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-239.455459256378</v>
+        <v>-260.503626672388</v>
       </c>
       <c r="AR2" t="n">
-        <v>-258.46</v>
+        <v>-385.62</v>
       </c>
       <c r="AS2" t="n">
-        <v>-122013293.04</v>
+        <v>-224704184.66</v>
       </c>
       <c r="AT2" t="n">
-        <v>-298.375844075703</v>
+        <v>-479.925352862166</v>
       </c>
     </row>
   </sheetData>
